--- a/pythonProject/private/AutoWork/01.엑셀자동화기초/교육이수현황.xlsx
+++ b/pythonProject/private/AutoWork/01.엑셀자동화기초/교육이수현황.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\private\study\ProjectPy\AutoExcel\01.엑셀자동화기초\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\private\study\python\pythonProject\private\AutoWork\01.엑셀자동화기초\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3F9329E-F4C6-4A9C-BC4B-AD92D85FC858}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2242C5F-9FEC-4503-BC71-A0B2A1BEC6E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38490" yWindow="3945" windowWidth="19200" windowHeight="16785" xr2:uid="{2D13E6AF-06F5-40E5-88A0-64338B1A46FB}"/>
+    <workbookView xWindow="170" yWindow="1750" windowWidth="19200" windowHeight="11170" xr2:uid="{A7D38258-D465-4AB9-A3D4-D7C6F50B5F35}"/>
   </bookViews>
   <sheets>
     <sheet name="마케팅팀" sheetId="3" r:id="rId1"/>
@@ -36,48 +36,9 @@
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t>성명</t>
-  </si>
-  <si>
-    <t>1월</t>
-  </si>
-  <si>
-    <t>리신</t>
-  </si>
-  <si>
-    <t>이즈리얼</t>
-  </si>
-  <si>
-    <t>야스오</t>
-  </si>
-  <si>
-    <t>요네</t>
-  </si>
-  <si>
-    <t>피즈</t>
-  </si>
-  <si>
-    <t>샤코</t>
-  </si>
-  <si>
-    <t>합계</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2월</t>
-  </si>
-  <si>
-    <t>3월</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,28 +54,13 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color rgb="FFFFFFFA"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF7D00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -131,11 +77,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -451,144 +394,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D481E60-9FC9-4660-A6C8-458E2FB1AD6E}">
-  <dimension ref="A1:D8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78CD63A5-6BB4-4C59-9464-43671DCC2104}">
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2">
-        <v>12</v>
-      </c>
-      <c r="C2">
-        <v>12</v>
-      </c>
-      <c r="D2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3">
-        <v>5</v>
-      </c>
-      <c r="C3">
-        <v>5</v>
-      </c>
-      <c r="D3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6">
-        <v>15.5</v>
-      </c>
-      <c r="C6">
-        <v>15.5</v>
-      </c>
-      <c r="D6">
-        <v>15.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7">
-        <v>8</v>
-      </c>
-      <c r="C7">
-        <v>8</v>
-      </c>
-      <c r="D7">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8">
-        <f>SUM(B2:B7)</f>
-        <v>40.5</v>
-      </c>
-      <c r="C8">
-        <f>SUM(C2:C7)</f>
-        <v>40.5</v>
-      </c>
-      <c r="D8">
-        <f>SUM(D2:D7)</f>
-        <v>40.5</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{324DF1E6-BFD4-474E-A363-C5DFA3676B87}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9D79CE6-A685-4EB1-AA37-FC0FD681F039}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -596,12 +422,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F66F9B2B-4048-497E-BD4B-DA6D0F88D376}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D94D48A-3383-41CD-9F0E-D0B261EC3ECC}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -609,12 +435,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F92F4AF7-B2DD-48C0-898D-C21E10BA588E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BF84390-D0B9-464E-B61E-ED4AE5919B8E}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
